--- a/Jogos_do_Dia/2023-04-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
         <v>3</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.9</v>
+        <v>5.05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="H3" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -763,10 +763,10 @@
         <v>2.65</v>
       </c>
       <c r="M3" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N3" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
         <v>1.06</v>
@@ -873,10 +873,10 @@
         <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O4" t="n">
         <v>1.42</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="I5" t="n">
         <v>1.09</v>
@@ -983,10 +983,10 @@
         <v>2.55</v>
       </c>
       <c r="M5" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="N5" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.15</v>
+        <v>6.6</v>
       </c>
       <c r="G6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="I6" t="n">
         <v>1.06</v>
@@ -1093,10 +1093,10 @@
         <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N6" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
@@ -1203,10 +1203,10 @@
         <v>2.84</v>
       </c>
       <c r="M7" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="N7" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="O7" t="n">
         <v>1.48</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1313,7 +1313,7 @@
         <v>2.65</v>
       </c>
       <c r="M8" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="N8" t="n">
         <v>1.62</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2077,16 +2077,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2172,52 +2172,52 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7.45</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2392,37 +2392,37 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.62</v>
       </c>
-      <c r="G18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.75</v>
-      </c>
       <c r="N18" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
         <v>1.79</v>
@@ -2431,13 +2431,13 @@
         <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
         <v>1.64</v>
@@ -2502,52 +2502,52 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V19" t="n">
         <v>1.46</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2627,16 +2627,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2722,52 +2722,52 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V21" t="n">
         <v>0.85</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2853,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3052,52 +3052,52 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="V24" t="n">
         <v>1.64</v>
@@ -3162,52 +3162,52 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H25" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="N25" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="R25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="T25" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U25" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="V25" t="n">
         <v>1.8</v>
@@ -3275,10 +3275,10 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="H26" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="I26" t="n">
         <v>1.01</v>
@@ -3293,10 +3293,10 @@
         <v>3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="N26" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -3329,34 +3329,34 @@
         <v>1.14</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="27">
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -3397,16 +3397,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3513,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3602,52 +3602,52 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="G30" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -3733,10 +3733,10 @@
         <v>3.82</v>
       </c>
       <c r="M30" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="O30" t="n">
         <v>1.33</v>
@@ -3775,19 +3775,19 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF30" t="n">
         <v>1.65</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="G31" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>4.95</v>
+        <v>4.8</v>
       </c>
       <c r="I31" t="n">
         <v>1.01</v>
@@ -3843,10 +3843,10 @@
         <v>3.55</v>
       </c>
       <c r="M31" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="N31" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="O31" t="n">
         <v>1.36</v>
@@ -3894,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE31" t="n">
         <v>1.5</v>
@@ -3932,10 +3932,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H32" t="n">
         <v>3.15</v>
@@ -3953,10 +3953,10 @@
         <v>4.2</v>
       </c>
       <c r="M32" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="N32" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O32" t="n">
         <v>1.33</v>
@@ -4004,10 +4004,10 @@
         <v>2.63</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF32" t="n">
         <v>1.57</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
         <v>1.06</v>
@@ -4063,10 +4063,10 @@
         <v>3.58</v>
       </c>
       <c r="M33" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
@@ -4114,7 +4114,7 @@
         <v>2.43</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE33" t="n">
         <v>1.33</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H35" t="n">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="I35" t="n">
         <v>1.06</v>
@@ -4283,10 +4283,10 @@
         <v>2.9</v>
       </c>
       <c r="M35" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="N35" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="O35" t="n">
         <v>1.44</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G36" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H36" t="n">
-        <v>4.7</v>
+        <v>4.25</v>
       </c>
       <c r="I36" t="n">
         <v>1.06</v>
@@ -4393,10 +4393,10 @@
         <v>3.3</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N36" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="O36" t="n">
         <v>1.4</v>
@@ -4444,7 +4444,7 @@
         <v>4.85</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE36" t="n">
         <v>1.31</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4592,37 +4592,37 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>4.45</v>
       </c>
       <c r="G38" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H38" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M38" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="N38" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q38" t="n">
         <v>1.91</v>
@@ -4631,13 +4631,13 @@
         <v>1.91</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V38" t="n">
         <v>2.33</v>
@@ -4664,19 +4664,19 @@
         <v>1.59</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF38" t="n">
         <v>2</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="39">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4723,22 +4723,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -4833,10 +4833,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4937,16 +4937,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -5053,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="G43" t="n">
-        <v>3.05</v>
+        <v>2.93</v>
       </c>
       <c r="H43" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="I43" t="n">
         <v>1.1</v>
@@ -5157,16 +5157,16 @@
         <v>5.75</v>
       </c>
       <c r="K43" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L43" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M43" t="n">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="N43" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="O43" t="n">
         <v>1.55</v>
@@ -5205,28 +5205,28 @@
         <v>2.92</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="44">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V44" t="n">
         <v>1.21</v>
@@ -5362,52 +5362,52 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V45" t="n">
         <v>0.57</v>
@@ -5472,52 +5472,52 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -5603,10 +5603,10 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G49" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="H49" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="I49" t="n">
         <v>1.09</v>
@@ -5823,10 +5823,10 @@
         <v>2.4</v>
       </c>
       <c r="M49" t="n">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="N49" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="O49" t="n">
         <v>1.55</v>
@@ -5865,28 +5865,28 @@
         <v>3.29</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="50">
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -5933,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -6043,10 +6043,10 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.43</v>
+        <v>2.11</v>
       </c>
       <c r="G52" t="n">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="H52" t="n">
-        <v>2.83</v>
+        <v>3.35</v>
       </c>
       <c r="I52" t="n">
         <v>1.09</v>
@@ -6153,10 +6153,10 @@
         <v>2.6</v>
       </c>
       <c r="M52" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="N52" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="O52" t="n">
         <v>1.55</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G53" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I53" t="n">
         <v>1.08</v>
@@ -6257,10 +6257,10 @@
         <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="L53" t="n">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="M53" t="n">
         <v>2.53</v>
@@ -6305,28 +6305,28 @@
         <v>3.05</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="54">
@@ -6462,37 +6462,37 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="G55" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="H55" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="N55" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Q55" t="n">
         <v>1.44</v>
@@ -6501,13 +6501,13 @@
         <v>2.63</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V55" t="n">
         <v>3</v>
@@ -6525,7 +6525,7 @@
         <v>3.98</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AB55" t="n">
         <v>7.5</v>
@@ -6534,19 +6534,19 @@
         <v>2.2</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF55" t="n">
         <v>2.2</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="G56" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H56" t="n">
-        <v>3.25</v>
+        <v>2.81</v>
       </c>
       <c r="I56" t="n">
         <v>1.05</v>
@@ -6593,10 +6593,10 @@
         <v>3.6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="N56" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="O56" t="n">
         <v>1.36</v>
@@ -6682,13 +6682,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -6697,16 +6697,16 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="I58" t="n">
         <v>1.05</v>
@@ -6813,10 +6813,10 @@
         <v>3.4</v>
       </c>
       <c r="M58" t="n">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="N58" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="O58" t="n">
         <v>1.4</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -6923,10 +6923,10 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -7033,10 +7033,10 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -7143,10 +7143,10 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="G62" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H62" t="n">
-        <v>5.25</v>
+        <v>4.95</v>
       </c>
       <c r="I62" t="n">
         <v>1.03</v>
@@ -7253,7 +7253,7 @@
         <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="N62" t="n">
         <v>2.12</v>
@@ -7342,13 +7342,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G63" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="H63" t="n">
-        <v>2.35</v>
+        <v>2.13</v>
       </c>
       <c r="I63" t="n">
         <v>1.06</v>
@@ -7363,10 +7363,10 @@
         <v>3.6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="N63" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="O63" t="n">
         <v>1.4</v>
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="G64" t="n">
         <v>4.1</v>
       </c>
       <c r="H64" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="I64" t="n">
         <v>1.03</v>
@@ -7473,10 +7473,10 @@
         <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="N64" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O64" t="n">
         <v>1.34</v>
@@ -7515,28 +7515,28 @@
         <v>3.27</v>
       </c>
       <c r="AA64" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE64" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="65">
@@ -7562,13 +7562,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G65" t="n">
-        <v>5.95</v>
+        <v>5.25</v>
       </c>
       <c r="H65" t="n">
-        <v>12.5</v>
+        <v>10.54</v>
       </c>
       <c r="I65" t="n">
         <v>1.03</v>
@@ -7583,10 +7583,10 @@
         <v>4.2</v>
       </c>
       <c r="M65" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="N65" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
         <v>1.27</v>
@@ -7625,28 +7625,28 @@
         <v>2.79</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG65" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="66">
@@ -7672,13 +7672,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.16</v>
+        <v>3.9</v>
       </c>
       <c r="G66" t="n">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="H66" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I66" t="n">
         <v>1.04</v>
@@ -7693,10 +7693,10 @@
         <v>2.88</v>
       </c>
       <c r="M66" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="N66" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O66" t="n">
         <v>1.47</v>
@@ -7735,28 +7735,28 @@
         <v>3.17</v>
       </c>
       <c r="AA66" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE66" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG66" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AH66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="G69" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H69" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I69" t="n">
         <v>1.08</v>
@@ -8017,10 +8017,10 @@
         <v>5.5</v>
       </c>
       <c r="K69" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="L69" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="M69" t="n">
         <v>2.65</v>
@@ -8065,28 +8065,28 @@
         <v>2.59</v>
       </c>
       <c r="AA69" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE69" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AG69" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="70">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>6.75</v>
+        <v>4.47</v>
       </c>
       <c r="G70" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="H70" t="n">
-        <v>1.45</v>
+        <v>1.72</v>
       </c>
       <c r="I70" t="n">
         <v>1.07</v>
@@ -8133,10 +8133,10 @@
         <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="N70" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="O70" t="n">
         <v>1.44</v>
@@ -8225,10 +8225,10 @@
         <v>1.37</v>
       </c>
       <c r="G71" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H71" t="n">
-        <v>8.1</v>
+        <v>8.25</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -8243,10 +8243,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="N71" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="O71" t="n">
         <v>1.44</v>
@@ -8332,13 +8332,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I72" t="n">
         <v>1.09</v>
@@ -8353,10 +8353,10 @@
         <v>2.55</v>
       </c>
       <c r="M72" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="N72" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="O72" t="n">
         <v>1.52</v>
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3.96</v>
+        <v>4.15</v>
       </c>
       <c r="G73" t="n">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="H73" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="I73" t="n">
         <v>1.09</v>
@@ -8463,10 +8463,10 @@
         <v>2.5</v>
       </c>
       <c r="M73" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="N73" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O73" t="n">
         <v>1.52</v>
@@ -8552,13 +8552,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>5.4</v>
+        <v>4.95</v>
       </c>
       <c r="G74" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H74" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="I74" t="n">
         <v>1.05</v>
@@ -8573,10 +8573,10 @@
         <v>3.75</v>
       </c>
       <c r="M74" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="N74" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O74" t="n">
         <v>1.36</v>
@@ -8662,13 +8662,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H75" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I75" t="n">
         <v>1.13</v>
@@ -8677,10 +8677,10 @@
         <v>5.75</v>
       </c>
       <c r="K75" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="L75" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="M75" t="n">
         <v>2.72</v>
@@ -8725,28 +8725,28 @@
         <v>2.67</v>
       </c>
       <c r="AA75" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AD75" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE75" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AF75" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH75" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="76">
@@ -8772,13 +8772,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="G76" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H76" t="n">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="I76" t="n">
         <v>1.06</v>
@@ -8793,10 +8793,10 @@
         <v>3.25</v>
       </c>
       <c r="M76" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="O76" t="n">
         <v>1.41</v>
@@ -8992,13 +8992,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="H78" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I78" t="n">
         <v>1.05</v>
@@ -9013,10 +9013,10 @@
         <v>2.8</v>
       </c>
       <c r="M78" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="N78" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O78" t="n">
         <v>1.5</v>
@@ -9064,7 +9064,7 @@
         <v>3.48</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE78" t="n">
         <v>1.43</v>
@@ -9102,13 +9102,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3.94</v>
+        <v>3.85</v>
       </c>
       <c r="G79" t="n">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="H79" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="I79" t="n">
         <v>1.08</v>
@@ -9123,10 +9123,10 @@
         <v>2.75</v>
       </c>
       <c r="M79" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="N79" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O79" t="n">
         <v>1.44</v>
@@ -9212,13 +9212,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I80" t="n">
         <v>1.03</v>
@@ -9233,10 +9233,10 @@
         <v>2.88</v>
       </c>
       <c r="M80" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="N80" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O80" t="n">
         <v>1.44</v>
@@ -9322,13 +9322,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="G81" t="n">
-        <v>3.66</v>
+        <v>3.45</v>
       </c>
       <c r="H81" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="I81" t="n">
         <v>1.07</v>
@@ -9343,10 +9343,10 @@
         <v>2.8</v>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="N81" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="O81" t="n">
         <v>1.44</v>

--- a/Jogos_do_Dia/2023-04-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -653,10 +653,10 @@
         <v>2.77</v>
       </c>
       <c r="M2" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="N2" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="O2" t="n">
         <v>1.42</v>
@@ -668,7 +668,7 @@
         <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
         <v>1.19</v>
@@ -683,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
         <v>1.56</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.05</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -763,10 +763,10 @@
         <v>2.65</v>
       </c>
       <c r="M3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N3" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -790,10 +790,10 @@
         <v>1.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>1.45</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="I4" t="n">
         <v>1.06</v>
@@ -873,10 +873,10 @@
         <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O4" t="n">
         <v>1.42</v>
@@ -900,7 +900,7 @@
         <v>1.45</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
         <v>3</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
         <v>1.09</v>
@@ -983,10 +983,10 @@
         <v>2.55</v>
       </c>
       <c r="M5" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="N5" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1010,10 +1010,10 @@
         <v>1.4</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>1.47</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.6</v>
+        <v>7.15</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="I6" t="n">
         <v>1.06</v>
@@ -1093,10 +1093,10 @@
         <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
@@ -1120,10 +1120,10 @@
         <v>1.13</v>
       </c>
       <c r="V6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W6" t="n">
         <v>3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>1.74</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
@@ -1203,10 +1203,10 @@
         <v>2.84</v>
       </c>
       <c r="M7" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="N7" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O7" t="n">
         <v>1.48</v>
@@ -1230,7 +1230,7 @@
         <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1295,10 +1295,10 @@
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1313,10 +1313,10 @@
         <v>2.65</v>
       </c>
       <c r="M8" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="G10" t="n">
-        <v>4.54</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>6.68</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.26</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="L11" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="M11" t="n">
-        <v>2.59</v>
+        <v>2.4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>1.6</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.83</v>
       </c>
       <c r="H12" t="n">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="N12" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.74</v>
       </c>
       <c r="H13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="N13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>2.55</v>
       </c>
       <c r="G14" t="n">
-        <v>3.52</v>
+        <v>3.71</v>
       </c>
       <c r="H14" t="n">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="N14" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.36</v>
+        <v>4.01</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>2.48</v>
       </c>
       <c r="M15" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2172,31 +2172,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J16" t="n">
         <v>7.45</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="L16" t="n">
         <v>2.52</v>
       </c>
       <c r="M16" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="N16" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2205,10 +2205,10 @@
         <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S16" t="n">
         <v>1.34</v>
@@ -2262,87 +2262,87 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Serbia Prva Liga</t>
+          <t>Slovenia 2. SNL</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
         <v>45021.45833333334</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Radnički Novi Beograd</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sloboda Užice</t>
+          <t>Fužinar</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>4.21</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="M17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N17" t="n">
         <v>2.06</v>
       </c>
-      <c r="N17" t="n">
-        <v>1.54</v>
-      </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="W17" t="n">
-        <v>0.85</v>
+        <v>1.18</v>
       </c>
       <c r="X17" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2372,87 +2372,87 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Slovenia 2. SNL</t>
+          <t>Slovakia 2. Liga</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45021.45833333334</v>
+        <v>45021.47916666666</v>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Petržalka akadémia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fužinar</t>
+          <t>Komárno</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.59</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>4.54</v>
+        <v>2.15</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K18" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="L18" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="N18" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X18" t="n">
         <v>1.79</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.73</v>
       </c>
       <c r="Y18" t="n">
         <v>1.42</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.15</v>
+        <v>3.21</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2482,96 +2482,96 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Serbia Prva Liga</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45021.45833333334</v>
+        <v>45021.47916666666</v>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Inđija</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Grafičar</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.39</v>
+        <v>1.28</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4.34</v>
       </c>
       <c r="H19" t="n">
-        <v>2.95</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J19" t="n">
-        <v>8.15</v>
+        <v>16</v>
       </c>
       <c r="K19" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="L19" t="n">
-        <v>2.65</v>
+        <v>4.05</v>
       </c>
       <c r="M19" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="N19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AA19" t="n">
         <v>1.59</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2592,771 +2592,771 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Serbia Prva Liga</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45021.45833333334</v>
+        <v>45021.5</v>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Radnički Sr. Mitrovica</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trajal Krusevac</t>
+          <t>Slovácko</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AA20" t="n">
         <v>1.82</v>
       </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Serbia Prva Liga</t>
+          <t>Finland Veikkausliiga</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45021.45833333334</v>
+        <v>45021.5</v>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Loznica</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Zlatibor Čajetina</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.64</v>
+        <v>3.97</v>
       </c>
       <c r="I21" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="J21" t="n">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="K21" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="L21" t="n">
-        <v>2.55</v>
+        <v>3.08</v>
       </c>
       <c r="M21" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="N21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.44</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.49</v>
-      </c>
       <c r="P21" t="n">
-        <v>2.44</v>
+        <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="T21" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U21" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Serbia Prva Liga</t>
+          <t>Finland Veikkausliiga</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45021.45833333334</v>
+        <v>45021.5</v>
       </c>
       <c r="C22" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rad Beograd</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Železničar Pančevo</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.96</v>
+        <v>3.64</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="H22" t="n">
-        <v>1.98</v>
+        <v>2.37</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="M22" t="n">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="N22" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="V22" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Serbia Prva Liga</t>
+          <t>Finland Veikkausliiga</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45021.45833333334</v>
+        <v>45021.5</v>
       </c>
       <c r="C23" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OFK Vršac</t>
+          <t>Mariehamn</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.64</v>
+        <v>4.29</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M23" t="n">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.64</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Finland Veikkausliiga</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45021.47916666666</v>
+        <v>45021.5</v>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="G24" t="n">
-        <v>5.75</v>
+        <v>3.95</v>
       </c>
       <c r="H24" t="n">
-        <v>12.4</v>
+        <v>4.95</v>
       </c>
       <c r="I24" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J24" t="n">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="L24" t="n">
-        <v>4.05</v>
+        <v>3.55</v>
       </c>
       <c r="M24" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="N24" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.47</v>
+        <v>2.05</v>
       </c>
       <c r="S24" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="T24" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="U24" t="n">
-        <v>4.2</v>
+        <v>1.76</v>
       </c>
       <c r="V24" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Slovakia 2. Liga</t>
+          <t>Finland Veikkausliiga</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45021.47916666666</v>
+        <v>45021.5</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Petržalka akadémia</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.96</v>
+        <v>5.31</v>
       </c>
       <c r="G25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P25" t="n">
         <v>3.25</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J25" t="n">
-        <v>11</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.8</v>
-      </c>
       <c r="Q25" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AG25" t="n">
         <v>2</v>
       </c>
-      <c r="S25" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Lithuania A Lyga</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
         <v>45021.5</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>2.36</v>
       </c>
       <c r="G26" t="n">
-        <v>4.9</v>
+        <v>2.76</v>
       </c>
       <c r="H26" t="n">
-        <v>1.21</v>
+        <v>3.11</v>
       </c>
       <c r="I26" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K26" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="L26" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M26" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="R26" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>1.06</v>
       </c>
       <c r="T26" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="U26" t="n">
-        <v>1.05</v>
+        <v>2.95</v>
       </c>
       <c r="V26" t="n">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>2.07</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3373,76 +3373,76 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dečić</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mornar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.14</v>
+        <v>3.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.93</v>
+        <v>2.29</v>
       </c>
       <c r="H27" t="n">
-        <v>3.68</v>
+        <v>2.72</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="K27" t="n">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="L27" t="n">
-        <v>2.27</v>
+        <v>2.8</v>
       </c>
       <c r="M27" t="n">
-        <v>2.67</v>
+        <v>2.2</v>
       </c>
       <c r="N27" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V27" t="n">
         <v>1.31</v>
       </c>
       <c r="W27" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="X27" t="n">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -3483,76 +3483,76 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Dečić</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Mornar</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.97</v>
+        <v>3.21</v>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>1.79</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>4.21</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M28" t="n">
-        <v>2.09</v>
+        <v>2.72</v>
       </c>
       <c r="N28" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V28" t="n">
         <v>1.31</v>
       </c>
       <c r="W28" t="n">
-        <v>1.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X28" t="n">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Z28" t="n">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -3582,111 +3582,111 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lithuania A Lyga</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
         <v>45021.5</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.38</v>
+        <v>12.81</v>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>4.69</v>
       </c>
       <c r="H29" t="n">
-        <v>7.5</v>
+        <v>1.23</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K29" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="L29" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="N29" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>1.06</v>
+        <v>3.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="U29" t="n">
-        <v>2.95</v>
+        <v>1.05</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>2.07</v>
       </c>
       <c r="X29" t="n">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="30">
@@ -3696,68 +3696,68 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45021.5</v>
+        <v>45021.51041666666</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="G30" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="J30" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="K30" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="L30" t="n">
-        <v>3.82</v>
+        <v>3.3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="R30" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="T30" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="U30" t="n">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3775,774 +3775,774 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.4</v>
+        <v>7.25</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.11</v>
+        <v>4.85</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AG30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AH30" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Finland Veikkausliiga</t>
+          <t>Greece Super League 2</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45021.5</v>
+        <v>45021.52083333334</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Olympiakos Piraeus II</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Apollon Smirnis</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8</v>
+        <v>1.61</v>
       </c>
       <c r="I31" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="L31" t="n">
-        <v>3.55</v>
+        <v>2.3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.69</v>
+        <v>2.3</v>
       </c>
       <c r="N31" t="n">
-        <v>2.02</v>
+        <v>1.55</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Finland Veikkausliiga</t>
+          <t>Lithuania A Lyga</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45021.5</v>
+        <v>45021.54166666666</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mariehamn</t>
+          <t>Trakai</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.03</v>
+        <v>3.77</v>
       </c>
       <c r="G32" t="n">
-        <v>3.65</v>
+        <v>1.47</v>
       </c>
       <c r="H32" t="n">
-        <v>3.15</v>
+        <v>6.03</v>
       </c>
       <c r="I32" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="J32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.22</v>
       </c>
-      <c r="L32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U32" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Finland Veikkausliiga</t>
+          <t>Montenegro Montenegrin First League</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45021.5</v>
+        <v>45021.54166666666</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Budućnost</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Iskra</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.01</v>
+        <v>1.52</v>
       </c>
       <c r="G33" t="n">
-        <v>3.6</v>
+        <v>2.99</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="J33" t="n">
         <v>11.5</v>
       </c>
       <c r="K33" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="L33" t="n">
-        <v>3.58</v>
+        <v>3.17</v>
       </c>
       <c r="M33" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="N33" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="O33" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P33" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="S33" t="n">
-        <v>1.38</v>
+        <v>1.04</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="U33" t="n">
-        <v>1.58</v>
+        <v>2.8</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Finland Veikkausliiga</t>
+          <t>Germany DFB Pokal</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45021.5</v>
+        <v>45021.54166666666</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Nürnberg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.97</v>
+        <v>1.7</v>
       </c>
       <c r="I34" t="n">
         <v>1.03</v>
       </c>
       <c r="J34" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="L34" t="n">
-        <v>3.08</v>
+        <v>3.3</v>
       </c>
       <c r="M34" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="N34" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P34" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R34" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S34" t="n">
-        <v>1.28</v>
+        <v>2.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.73</v>
+        <v>1.17</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.41</v>
+        <v>2.82</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC34" t="n">
-        <v>3.46</v>
+        <v>1.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.85</v>
+        <v>1.46</v>
       </c>
       <c r="AF34" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="AG34" t="n">
-        <v>2.56</v>
+        <v>2.39</v>
       </c>
       <c r="AH34" t="n">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45021.5</v>
+        <v>45021.5625</v>
       </c>
       <c r="C35" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Slovácko</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.56</v>
+        <v>3.89</v>
       </c>
       <c r="G35" t="n">
-        <v>3.05</v>
+        <v>1.54</v>
       </c>
       <c r="H35" t="n">
-        <v>2.61</v>
+        <v>4.92</v>
       </c>
       <c r="I35" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="J35" t="n">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="K35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.36</v>
       </c>
-      <c r="L35" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.32</v>
-      </c>
       <c r="U35" t="n">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="V35" t="n">
-        <v>1.5</v>
+        <v>2.07</v>
       </c>
       <c r="W35" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="X35" t="n">
         <v>1.69</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="Z35" t="n">
-        <v>3.03</v>
+        <v>2.92</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.82</v>
+        <v>2.16</v>
       </c>
       <c r="AB35" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AD35" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.4</v>
+        <v>1.91</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.74</v>
+        <v>2.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>2.13</v>
+        <v>3.3</v>
       </c>
       <c r="AH35" t="n">
-        <v>2.88</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Finland Veikkausliiga</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45021.51041666666</v>
+        <v>45021.57291666666</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="G36" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="I36" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="J36" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="L36" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="M36" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="N36" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="P36" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R36" t="n">
         <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U36" t="n">
-        <v>2.05</v>
+        <v>1.37</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>4.85</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Greece Super League 2</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45021.52083333334</v>
+        <v>45021.57291666666</v>
       </c>
       <c r="C37" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus II</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Apollon Smirnis</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.15</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H37" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M37" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="N37" t="n">
-        <v>1.52</v>
+        <v>2.2</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.71</v>
+        <v>1.21</v>
       </c>
       <c r="W37" t="n">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="X37" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.23</v>
+        <v>2.12</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.77</v>
+        <v>3.76</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG37" t="n">
         <v>0</v>
@@ -4572,197 +4572,197 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Germany DFB Pokal</t>
+          <t>Lithuania A Lyga</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45021.54166666666</v>
+        <v>45021.58333333334</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nürnberg</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dainava</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.45</v>
+        <v>2.22</v>
       </c>
       <c r="G38" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="H38" t="n">
-        <v>1.68</v>
+        <v>2.32</v>
       </c>
       <c r="I38" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J38" t="n">
-        <v>8.300000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="K38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.32</v>
       </c>
-      <c r="L38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="U38" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y38" t="n">
         <v>1.83</v>
       </c>
-      <c r="N38" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="W38" t="n">
-        <v>3</v>
-      </c>
-      <c r="X38" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>2.57</v>
-      </c>
       <c r="Z38" t="n">
-        <v>4.76</v>
+        <v>2.94</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lithuania A Lyga</t>
+          <t>Montenegro Montenegrin First League</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45021.54166666666</v>
+        <v>45021.58333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Trakai</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="G39" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L39" t="n">
         <v>3.3</v>
       </c>
-      <c r="H39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
       <c r="M39" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="N39" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P39" t="n">
-        <v>2.75</v>
+        <v>2.86</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="V39" t="n">
-        <v>0.33</v>
+        <v>2.31</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X39" t="n">
-        <v>1.38</v>
+        <v>1.92</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.43</v>
+        <v>3.14</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
@@ -4792,105 +4792,105 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Montenegro Montenegrin First League</t>
+          <t>South Africa Premier Soccer League</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45021.54166666666</v>
+        <v>45021.60416666666</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Budućnost</t>
+          <t>Marumo Gallants</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Iskra</t>
+          <t>Real Kings</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="G40" t="n">
-        <v>4.3</v>
+        <v>2.95</v>
       </c>
       <c r="H40" t="n">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="N40" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V40" t="n">
-        <v>2.23</v>
+        <v>1.09</v>
       </c>
       <c r="W40" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="X40" t="n">
-        <v>1.72</v>
+        <v>1.27</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="Z40" t="n">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -4902,658 +4902,658 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Serbia Prva Liga</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45021.54166666666</v>
+        <v>45021.625</v>
       </c>
       <c r="C41" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mačva Šabac</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Novi Sad</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="K41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="N41" t="n">
         <v>1.5</v>
       </c>
-      <c r="L41" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.37</v>
-      </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V41" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="W41" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="Y41" t="n">
         <v>1.15</v>
       </c>
       <c r="Z41" t="n">
-        <v>2.94</v>
+        <v>2.39</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Serbia Prva Liga</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45021.54166666666</v>
+        <v>45021.625</v>
       </c>
       <c r="C42" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Metalac GM</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jedinstvo Ub</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H42" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M42" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AF42" t="n">
         <v>2.26</v>
       </c>
-      <c r="N42" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45021.5625</v>
+        <v>45021.63194444445</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>San Martín Tucumán</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.35</v>
+        <v>2.55</v>
       </c>
       <c r="G43" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="H43" t="n">
-        <v>2.03</v>
+        <v>2.67</v>
       </c>
       <c r="I43" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="J43" t="n">
-        <v>5.75</v>
+        <v>7.2</v>
       </c>
       <c r="K43" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L43" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="M43" t="n">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="N43" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="P43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R43" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="S43" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="T43" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U43" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="V43" t="n">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
       <c r="W43" t="n">
-        <v>2.14</v>
+        <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.92</v>
+        <v>2.24</v>
       </c>
       <c r="AA43" t="n">
-        <v>2.16</v>
+        <v>2.29</v>
       </c>
       <c r="AB43" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC43" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="AD43" t="n">
-        <v>1.54</v>
+        <v>1.26</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.91</v>
+        <v>1.49</v>
       </c>
       <c r="AF43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG43" t="n">
         <v>2.4</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AH43" t="n">
         <v>3.3</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>4.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45021.57291666666</v>
+        <v>45021.63541666666</v>
       </c>
       <c r="C44" t="n">
         <v>29</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Reggina</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>13.3</v>
+        <v>2.2</v>
       </c>
       <c r="G44" t="n">
-        <v>6.1</v>
+        <v>2.95</v>
       </c>
       <c r="H44" t="n">
-        <v>1.18</v>
+        <v>3.43</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J44" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="L44" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="M44" t="n">
-        <v>1.59</v>
+        <v>2.29</v>
       </c>
       <c r="N44" t="n">
-        <v>2.16</v>
+        <v>1.55</v>
       </c>
       <c r="O44" t="n">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="P44" t="n">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="R44" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="S44" t="n">
-        <v>4.15</v>
+        <v>1.36</v>
       </c>
       <c r="T44" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="W44" t="n">
-        <v>2.71</v>
+        <v>1.27</v>
       </c>
       <c r="X44" t="n">
         <v>1.64</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>3.76</v>
+        <v>3.14</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45021.57291666666</v>
+        <v>45021.64583333334</v>
       </c>
       <c r="C45" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.77</v>
+        <v>1.72</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H45" t="n">
-        <v>2.52</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="J45" t="n">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="L45" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="M45" t="n">
-        <v>2.16</v>
+        <v>2.73</v>
       </c>
       <c r="N45" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="O45" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="P45" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.9</v>
+        <v>2.47</v>
       </c>
       <c r="R45" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="S45" t="n">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="T45" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="U45" t="n">
-        <v>1.37</v>
+        <v>2.03</v>
       </c>
       <c r="V45" t="n">
-        <v>0.57</v>
+        <v>2</v>
       </c>
       <c r="W45" t="n">
-        <v>0.64</v>
+        <v>0.25</v>
       </c>
       <c r="X45" t="n">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="Y45" t="n">
         <v>1.21</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.53</v>
+        <v>3.05</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lithuania A Lyga</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45021.58333333334</v>
+        <v>45021.64583333334</v>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Dainava</t>
+          <t>Defensores de Belgrano</t>
         </is>
       </c>
       <c r="F46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q46" t="n">
         <v>2.3</v>
       </c>
-      <c r="G46" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J46" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.75</v>
-      </c>
       <c r="R46" t="n">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="S46" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="T46" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="U46" t="n">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
       </c>
       <c r="W46" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.83</v>
+        <v>1.14</v>
       </c>
       <c r="Z46" t="n">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
@@ -5562,441 +5562,441 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Montenegro Montenegrin First League</t>
+          <t>Germany DFB Pokal</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45021.58333333334</v>
+        <v>45021.65625</v>
       </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="F47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J47" t="n">
+        <v>19</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L47" t="n">
+        <v>5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q47" t="n">
         <v>1.44</v>
       </c>
-      <c r="G47" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V47" t="n">
-        <v>2.31</v>
+        <v>3</v>
       </c>
       <c r="W47" t="n">
-        <v>1.31</v>
+        <v>3</v>
       </c>
       <c r="X47" t="n">
-        <v>1.92</v>
+        <v>1.56</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.22</v>
+        <v>2.42</v>
       </c>
       <c r="Z47" t="n">
-        <v>3.14</v>
+        <v>3.98</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>South Africa Premier Soccer League</t>
+          <t>Italy Coppa Italia</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45021.60416666666</v>
+        <v>45021.66666666666</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Marumo Gallants</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Real Kings</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.6</v>
+        <v>3.55</v>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="H48" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M48" t="n">
-        <v>2.4</v>
+        <v>1.96</v>
       </c>
       <c r="N48" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V48" t="n">
-        <v>1.09</v>
+        <v>2.5</v>
       </c>
       <c r="W48" t="n">
-        <v>0.91</v>
+        <v>3</v>
       </c>
       <c r="X48" t="n">
-        <v>1.27</v>
+        <v>3</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Spain Copa del Rey</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45021.625</v>
+        <v>45021.66666666666</v>
       </c>
       <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J49" t="n">
+        <v>11</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P49" t="n">
         <v>3</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Olympiakos Piraeus</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>PAOK</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J49" t="n">
-        <v>6</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L49" t="n">
+      <c r="Q49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC49" t="n">
         <v>2.4</v>
       </c>
-      <c r="M49" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V49" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X49" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>2.88</v>
-      </c>
       <c r="AD49" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AF49" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="AG49" t="n">
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
       <c r="AH49" t="n">
-        <v>4.55</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45021.625</v>
+        <v>45021.66666666666</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Al Ta'ee</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="G50" t="n">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
-        <v>3.19</v>
+        <v>3.41</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M50" t="n">
-        <v>2.47</v>
+        <v>1.8</v>
       </c>
       <c r="N50" t="n">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y50" t="n">
         <v>1.25</v>
       </c>
-      <c r="W50" t="n">
-        <v>1</v>
-      </c>
-      <c r="X50" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>1.15</v>
-      </c>
       <c r="Z50" t="n">
-        <v>2.39</v>
+        <v>2.65</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="51">
@@ -6006,83 +6006,83 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45021.63194444445</v>
+        <v>45021.66666666666</v>
       </c>
       <c r="C51" t="n">
         <v>10</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>San Martín Tucumán</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.56</v>
+        <v>2.35</v>
       </c>
       <c r="G51" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="H51" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M51" t="n">
         <v>2.73</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>2.47</v>
-      </c>
       <c r="N51" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V51" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="W51" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y51" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y51" t="n">
-        <v>0.99</v>
-      </c>
       <c r="Z51" t="n">
-        <v>2.24</v>
+        <v>2.67</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
@@ -6094,16 +6094,16 @@
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH51" t="n">
         <v>0</v>
@@ -6112,393 +6112,393 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45021.63541666666</v>
+        <v>45021.66666666666</v>
       </c>
       <c r="C52" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Reggina</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="G52" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H52" t="n">
-        <v>3.35</v>
+        <v>2.05</v>
       </c>
       <c r="I52" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K52" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="L52" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="M52" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="N52" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="O52" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="P52" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="R52" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S52" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="T52" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U52" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="V52" t="n">
-        <v>1.43</v>
+        <v>0.7</v>
       </c>
       <c r="W52" t="n">
-        <v>1.27</v>
+        <v>0.5</v>
       </c>
       <c r="X52" t="n">
-        <v>1.64</v>
+        <v>0.98</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="Z52" t="n">
-        <v>3.14</v>
+        <v>2.21</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.64</v>
+        <v>2.34</v>
       </c>
       <c r="AB52" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG52" t="n">
         <v>2.65</v>
       </c>
-      <c r="AD52" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>2.23</v>
-      </c>
       <c r="AH52" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45021.64583333334</v>
+        <v>45021.66666666666</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.73</v>
+        <v>2.82</v>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="I53" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>10.25</v>
       </c>
       <c r="K53" t="n">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="L53" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="M53" t="n">
-        <v>2.53</v>
+        <v>1.72</v>
       </c>
       <c r="N53" t="n">
+        <v>2</v>
+      </c>
+      <c r="O53" t="n">
         <v>1.4</v>
       </c>
-      <c r="O53" t="n">
-        <v>1.58</v>
-      </c>
       <c r="P53" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.47</v>
+        <v>1.83</v>
       </c>
       <c r="R53" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="S53" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="T53" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U53" t="n">
         <v>1.35</v>
       </c>
-      <c r="U53" t="n">
-        <v>2.03</v>
-      </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="W53" t="n">
-        <v>0.25</v>
+        <v>2.09</v>
       </c>
       <c r="X53" t="n">
-        <v>1.84</v>
+        <v>1.29</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="Z53" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.47</v>
+        <v>2.11</v>
       </c>
       <c r="AB53" t="n">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="AC53" t="n">
-        <v>3.28</v>
+        <v>1.88</v>
       </c>
       <c r="AD53" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AE53" t="n">
-        <v>1.72</v>
+        <v>1.31</v>
       </c>
       <c r="AF53" t="n">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="AG53" t="n">
-        <v>2.79</v>
+        <v>1.98</v>
       </c>
       <c r="AH53" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45021.64583333334</v>
+        <v>45021.66666666666</v>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Defensores de Belgrano</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V54" t="n">
-        <v>1</v>
+        <v>2.31</v>
       </c>
       <c r="W54" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="X54" t="n">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.56</v>
+        <v>3</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Germany DFB Pokal</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45021.65625</v>
+        <v>45021.66666666666</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="F55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H55" t="n">
         <v>2.15</v>
       </c>
-      <c r="G55" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2.91</v>
-      </c>
       <c r="I55" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="J55" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K55" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.48</v>
+        <v>2.25</v>
       </c>
       <c r="N55" t="n">
-        <v>2.36</v>
+        <v>1.68</v>
       </c>
       <c r="O55" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P55" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="R55" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="S55" t="n">
         <v>1.4</v>
@@ -6507,462 +6507,462 @@
         <v>1.3</v>
       </c>
       <c r="U55" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="V55" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W55" t="n">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="X55" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.42</v>
+        <v>1.48</v>
       </c>
       <c r="Z55" t="n">
-        <v>3.98</v>
+        <v>3.07</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AB55" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC55" t="n">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="AD55" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AE55" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AF55" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AG55" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AH55" t="n">
-        <v>3</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Spain Copa del Rey</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45021.66666666666</v>
+        <v>45021.67708333334</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FC Barcelona</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.27</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H56" t="n">
-        <v>2.81</v>
+        <v>1.53</v>
       </c>
       <c r="I56" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="J56" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K56" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="L56" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N56" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
       </c>
       <c r="Q56" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF56" t="n">
         <v>1.7</v>
       </c>
-      <c r="R56" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V56" t="n">
-        <v>3</v>
-      </c>
-      <c r="W56" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>2.02</v>
-      </c>
       <c r="AG56" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AH56" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45021.66666666666</v>
+        <v>45021.67708333334</v>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.28</v>
+        <v>1.22</v>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="H57" t="n">
-        <v>3.08</v>
+        <v>12</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="K57" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="L57" t="n">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="M57" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="N57" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="V57" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="W57" t="n">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="X57" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="Z57" t="n">
-        <v>2.67</v>
+        <v>2.79</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Italy Coppa Italia</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45021.66666666666</v>
+        <v>45021.67708333334</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="G58" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H58" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J58" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="K58" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="L58" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="M58" t="n">
-        <v>1.84</v>
+        <v>2.35</v>
       </c>
       <c r="N58" t="n">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="O58" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="P58" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="R58" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S58" t="n">
-        <v>2.05</v>
+        <v>1.63</v>
       </c>
       <c r="T58" t="n">
         <v>1.3</v>
       </c>
       <c r="U58" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="V58" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="W58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH58" t="n">
         <v>3</v>
-      </c>
-      <c r="X58" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>3.95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Ecuador Primera Categoría Serie B</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45021.66666666666</v>
+        <v>45021.70833333334</v>
       </c>
       <c r="C59" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Al Ta'ee</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H59" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M59" t="n">
-        <v>1.9</v>
+        <v>2.27</v>
       </c>
       <c r="N59" t="n">
-        <v>1.9</v>
+        <v>1.56</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V59" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="W59" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="X59" t="n">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.65</v>
+        <v>2.32</v>
       </c>
       <c r="AA59" t="n">
         <v>0</v>
@@ -6992,87 +6992,87 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Ecuador Primera Categoría Serie B</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45021.66666666666</v>
+        <v>45021.70833333334</v>
       </c>
       <c r="C60" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Independiente Juniors</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.68</v>
+        <v>1.7</v>
       </c>
       <c r="G60" t="n">
-        <v>3.58</v>
+        <v>3.2</v>
       </c>
       <c r="H60" t="n">
-        <v>2.29</v>
+        <v>4.8</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="M60" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U60" t="n">
         <v>2</v>
       </c>
-      <c r="N60" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
       <c r="V60" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="W60" t="n">
-        <v>2.09</v>
+        <v>1</v>
       </c>
       <c r="X60" t="n">
-        <v>1.29</v>
+        <v>1.66</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.63</v>
+        <v>0.9</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.92</v>
+        <v>2.56</v>
       </c>
       <c r="AA60" t="n">
         <v>0</v>
@@ -7102,991 +7102,991 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45021.66666666666</v>
+        <v>45021.71527777778</v>
       </c>
       <c r="C61" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Estudiantes Río Cuarto</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>3.39</v>
+        <v>2.75</v>
       </c>
       <c r="H61" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q61" t="n">
         <v>2.1</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V61" t="n">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="W61" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X61" t="n">
-        <v>0.98</v>
+        <v>1.2</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="Z61" t="n">
-        <v>2.21</v>
+        <v>2.59</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD61" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AG61" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45021.66666666666</v>
+        <v>45021.79166666666</v>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.56</v>
+        <v>6.75</v>
       </c>
       <c r="G62" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H62" t="n">
-        <v>4.95</v>
+        <v>1.45</v>
       </c>
       <c r="I62" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="J62" t="n">
-        <v>11</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="N62" t="n">
-        <v>2.12</v>
+        <v>1.68</v>
       </c>
       <c r="O62" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P62" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S62" t="n">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="T62" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="U62" t="n">
-        <v>2.3</v>
+        <v>1.17</v>
       </c>
       <c r="V62" t="n">
-        <v>2.31</v>
+        <v>3</v>
       </c>
       <c r="W62" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.43</v>
+        <v>2.77</v>
       </c>
       <c r="AB62" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC62" t="n">
-        <v>3.45</v>
+        <v>1.64</v>
       </c>
       <c r="AD62" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AF62" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AG62" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AH62" t="n">
-        <v>3.15</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45021.66666666666</v>
+        <v>45021.79166666666</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.2</v>
+        <v>1.37</v>
       </c>
       <c r="G63" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="H63" t="n">
-        <v>2.13</v>
+        <v>8.1</v>
       </c>
       <c r="I63" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="J63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K63" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="L63" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M63" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N63" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O63" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="R63" t="n">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="S63" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="T63" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="U63" t="n">
-        <v>1.58</v>
+        <v>2.95</v>
       </c>
       <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>3</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AE63" t="n">
         <v>1.5</v>
       </c>
-      <c r="W63" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X63" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AF63" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="AG63" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="AH63" t="n">
-        <v>2.81</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45021.67708333334</v>
+        <v>45021.79166666666</v>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>CS Emelec</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5.6</v>
+        <v>2.33</v>
       </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="J64" t="n">
-        <v>13</v>
+        <v>6.75</v>
       </c>
       <c r="K64" t="n">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="M64" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="N64" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="O64" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T64" t="n">
         <v>1.34</v>
       </c>
-      <c r="P64" t="n">
+      <c r="U64" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1</v>
+      </c>
+      <c r="W64" t="n">
         <v>3</v>
       </c>
-      <c r="Q64" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S64" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U64" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V64" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1.67</v>
-      </c>
       <c r="X64" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>3.27</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>3.13</v>
+        <v>1.75</v>
       </c>
       <c r="AB64" t="n">
-        <v>9.9</v>
+        <v>8</v>
       </c>
       <c r="AC64" t="n">
-        <v>1.5</v>
+        <v>2.52</v>
       </c>
       <c r="AD64" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AE64" t="n">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AF64" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AG64" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AH64" t="n">
-        <v>2.63</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45021.67708333334</v>
+        <v>45021.79166666666</v>
       </c>
       <c r="C65" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>Atlético Nacional</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.22</v>
+        <v>3.85</v>
       </c>
       <c r="G65" t="n">
-        <v>5.25</v>
+        <v>3.15</v>
       </c>
       <c r="H65" t="n">
-        <v>10.54</v>
+        <v>1.97</v>
       </c>
       <c r="I65" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="J65" t="n">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="K65" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="L65" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="M65" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R65" t="n">
         <v>1.72</v>
       </c>
-      <c r="N65" t="n">
-        <v>2</v>
-      </c>
-      <c r="O65" t="n">
+      <c r="S65" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD65" t="n">
         <v>1.27</v>
       </c>
-      <c r="P65" t="n">
+      <c r="AE65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH65" t="n">
         <v>3.4</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="U65" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="V65" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X65" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>2.77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45021.67708333334</v>
+        <v>45021.79166666666</v>
       </c>
       <c r="C66" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>SD Aucas</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3.9</v>
+        <v>5.55</v>
       </c>
       <c r="G66" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H66" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="I66" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J66" t="n">
-        <v>7.5</v>
+        <v>12.75</v>
       </c>
       <c r="K66" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="L66" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="M66" t="n">
-        <v>2.27</v>
+        <v>1.83</v>
       </c>
       <c r="N66" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="O66" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="P66" t="n">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="R66" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF66" t="n">
         <v>1.73</v>
       </c>
-      <c r="S66" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="T66" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U66" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="V66" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W66" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X66" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>1.83</v>
-      </c>
       <c r="AG66" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AH66" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie B</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45021.70833333334</v>
+        <v>45021.79861111111</v>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Club Atlético Güemes</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>Deportivo Morón</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="W67" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG67" t="n">
         <v>3</v>
       </c>
-      <c r="X67" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
       <c r="AH67" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie B</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45021.70833333334</v>
+        <v>45021.83333333334</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Independiente Juniors</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>Unión Española</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W68" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="X68" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.9</v>
+        <v>1.55</v>
       </c>
       <c r="Z68" t="n">
-        <v>2.56</v>
+        <v>3.08</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE68" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Brazil Pernambucano 1</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45021.71527777778</v>
+        <v>45021.83333333334</v>
       </c>
       <c r="C69" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Náutico</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Estudiantes Río Cuarto</t>
+          <t>Salgueiro</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.92</v>
+        <v>1.42</v>
       </c>
       <c r="G69" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="H69" t="n">
-        <v>2.58</v>
+        <v>5.86</v>
       </c>
       <c r="I69" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="J69" t="n">
-        <v>5.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="L69" t="n">
-        <v>2.3</v>
+        <v>3.12</v>
       </c>
       <c r="M69" t="n">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="N69" t="n">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="O69" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="P69" t="n">
-        <v>2.25</v>
+        <v>2.73</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R69" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S69" t="n">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="T69" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="U69" t="n">
-        <v>1.35</v>
+        <v>2.38</v>
       </c>
       <c r="V69" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="W69" t="n">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="X69" t="n">
-        <v>1.2</v>
+        <v>2.27</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.39</v>
+        <v>0.98</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.59</v>
+        <v>3.25</v>
       </c>
       <c r="AA69" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AB69" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="AG69" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AH69" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -8096,157 +8096,157 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45021.79166666666</v>
+        <v>45021.875</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Universitario</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4.47</v>
+        <v>1.61</v>
       </c>
       <c r="G70" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H70" t="n">
-        <v>1.72</v>
+        <v>5.1</v>
       </c>
       <c r="I70" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="J70" t="n">
-        <v>9.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="K70" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="L70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
         <v>3</v>
       </c>
-      <c r="M70" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="N70" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P70" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>2</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S70" t="n">
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AG70" t="n">
         <v>2.1</v>
       </c>
-      <c r="T70" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U70" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="V70" t="n">
-        <v>3</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AH70" t="n">
-        <v>3.42</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>South America Copa Sudamericana</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45021.79166666666</v>
+        <v>45021.875</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Ñublense</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.37</v>
+        <v>3.95</v>
       </c>
       <c r="G71" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
-        <v>8.25</v>
+        <v>1.86</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="N71" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="O71" t="n">
         <v>1.44</v>
@@ -8255,58 +8255,58 @@
         <v>2.63</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="72">
@@ -8316,71 +8316,71 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45021.79166666666</v>
+        <v>45021.875</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>América Mineiro</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CS Emelec</t>
+          <t>Peñarol</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G72" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
-        <v>3.05</v>
+        <v>3.76</v>
       </c>
       <c r="I72" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="J72" t="n">
-        <v>6.75</v>
+        <v>7.9</v>
       </c>
       <c r="K72" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="L72" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="M72" t="n">
-        <v>2.34</v>
+        <v>2.09</v>
       </c>
       <c r="N72" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="O72" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="P72" t="n">
-        <v>2.39</v>
+        <v>2.63</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="R72" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S72" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="T72" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="U72" t="n">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="V72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W72" t="n">
         <v>3</v>
@@ -8389,34 +8389,34 @@
         <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Z72" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AB72" t="n">
         <v>8</v>
       </c>
       <c r="AC72" t="n">
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="AD72" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AE72" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AF72" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AG72" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AH72" t="n">
-        <v>3.34</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="73">
@@ -8426,986 +8426,106 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45021.79166666666</v>
+        <v>45021.875</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Cerro Porteño</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Atlético Nacional</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4.15</v>
+        <v>1.75</v>
       </c>
       <c r="G73" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H73" t="n">
-        <v>1.8</v>
+        <v>4.47</v>
       </c>
       <c r="I73" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="J73" t="n">
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
       <c r="K73" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="L73" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M73" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="N73" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="O73" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="P73" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="Q73" t="n">
         <v>2.05</v>
       </c>
       <c r="R73" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S73" t="n">
-        <v>1.68</v>
+        <v>1.19</v>
       </c>
       <c r="T73" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="U73" t="n">
-        <v>1.29</v>
+        <v>2.1</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Y73" t="n">
         <v>0</v>
       </c>
       <c r="Z73" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AA73" t="n">
-        <v>2.52</v>
+        <v>1.48</v>
       </c>
       <c r="AB73" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="AD73" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AE73" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AF73" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AG73" t="n">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="AH73" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>South America Copa Libertadores</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>45021.79166666666</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>SD Aucas</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Flamengo</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="G74" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J74" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P74" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S74" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U74" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V74" t="n">
-        <v>0</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>45021.79861111111</v>
-      </c>
-      <c r="C75" t="n">
-        <v>10</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Club Atlético Güemes</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Deportivo Morón</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="G75" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="M75" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="N75" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P75" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U75" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="V75" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X75" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Chile Primera División</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>45021.83333333334</v>
-      </c>
-      <c r="C76" t="n">
-        <v>6</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Huachipato</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Unión Española</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J76" t="n">
-        <v>8</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N76" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O76" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P76" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R76" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U76" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V76" t="n">
-        <v>2</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="X76" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Brazil Pernambucano 1</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>45021.83333333334</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Náutico</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Salgueiro</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W77" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X77" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>South America Copa Sudamericana</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>45021.875</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Gimnasia La Plata</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Universitario</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G78" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="H78" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J78" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M78" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P78" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R78" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U78" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>3</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>South America Copa Libertadores</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>45021.875</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Ñublense</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G79" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J79" t="n">
-        <v>7</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M79" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N79" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P79" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>2</v>
-      </c>
-      <c r="R79" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S79" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U79" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>South America Copa Sudamericana</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>45021.875</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>América Mineiro</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Peñarol</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G80" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J80" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M80" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P80" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>3</v>
-      </c>
-      <c r="X80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>South America Copa Libertadores</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>45021.875</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Cerro Porteño</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="G81" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H81" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J81" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M81" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="N81" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P81" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T81" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U81" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V81" t="n">
-        <v>3</v>
-      </c>
-      <c r="W81" t="n">
-        <v>0</v>
-      </c>
-      <c r="X81" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AH81" t="n">
         <v>3.2</v>
       </c>
     </row>
